--- a/3. Effect_관련 파일/이펙트 제작 문서.xlsx
+++ b/3. Effect_관련 파일/이펙트 제작 문서.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsdu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsdu\Desktop\JinYeong_GitHub\3. Effect_관련 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65AA71C9-6921-4B6A-B782-C12BB17D435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DE4142-7BC7-492A-826D-FA2E5B9A2888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3240" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="16" xr2:uid="{B5E5BB8F-9B20-49AE-9DAA-3D099A6DFC15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{B5E5BB8F-9B20-49AE-9DAA-3D099A6DFC15}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="1주차 이펙터의 정의" sheetId="1" r:id="rId1"/>
+    <sheet name="1주차 레이아웃 설정" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>부모 파티클을 생성한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,333 @@
   </si>
   <si>
     <t>*이때 부모의 Shape를 Box로 만들어서 1자 형태로 만들면 가능하지 않을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 이펙트란 무엇인가?</t>
+  </si>
+  <si>
+    <t>게임 이펙터는 어떤 역할을 하나요?</t>
+  </si>
+  <si>
+    <t>게임 이펙트의 제작과 적용과정</t>
+  </si>
+  <si>
+    <t>우리가 공부해야 하는 것</t>
+  </si>
+  <si>
+    <t>게임 이펙트 작업 시 반드시 알아야 하는 것</t>
+  </si>
+  <si>
+    <t>1. 게임을 더욱 맛갈나고 재밌게 만들어주는 요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 직관적으로 유저의 눈을 즐겁게 만들어주는 요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 게임의 후반을 책임지는 피니셔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 기획문서를 통한 이펙트 비쥬얼의 대한 고민[서로 기획자와 협의를 하고 제안도 한다.]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 적용 후 빌드테스트(실제 게임)에서의 구현점검[소향적으로, 반드시 해야하는 작업 과정이다.]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 프로젝트별 정해진 네이밍 공식을 따를 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 항상 마지막에 작업을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 캐릭터 스킬, 환경, ui 등 게임의 전반적인 특수 효과를 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; Ex) 폭포, 비, 연기, 화려한 연출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 기획 문서에서 어떠한 이펙트를 만들지 제안하고, 서로 협의를 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 땅찍기를 더 강하게 하고 싶은 경우, 애니메이터와 협의를 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 스킬의 경우, 애니메이터와 협업(스킬 구성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 이펙트 제작 후 프리펩화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 이펙트에 필요한 모델링(메쉬= 3D max,Maya, C4d) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 간단한 메쉬를 만들 정도의 실력만 있으면 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 애니메이션 타이밍 감각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이펙트 관련 텍스쳐 제작방법(포토샵, 에프터 이펙트, 그래픽 툴 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 어떠한 텍스쳐를 사용하냐에 따라 퀄리티가 달라질 수 있기 때문에 정말 중요하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 굉장히 중요한 요소로, 그림과 기술, 쉐이더 테크닉, 애니메이션 적인 타이밍(가속 &amp; 반가속)이 필요하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 블랜드 모드의 개념과 정의(쉐이더 관련 이야기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 텍스쳐 사이즈나 포맷형식(텍스쳐는 2의 배수만 사용한다.)[예)64x64, 128x128, 256x256,512x512 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 이펙터가 가져야 하는 마음 가짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 항상 관찰하는 습관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 끊임없이 자기 발전을 갈구하는 습관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 새로운 기술을 끊임없이 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 본인의 작업물에 불만족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 퀄리티에 대한 끝 없는 욕심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 사물, 자연, 게임, 영화, 애니메이션 등 상세히 보면서 이펙트 구조나 필요한 요소를 생각해보고 관찰하는 습관이 필요하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 조금더 나은 사람이 되기 위한 발전을 위해 노력이 필요하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 기술은 항상 발전하기 때문에 따라가야하며, 조금만 덜하더라도 뒤쳐질 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 본인의 작업물에는 항상 부족함을 느끼고, 채워 나가려는 마음을 갖고 있어야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 퀄리티는 항상 높이기 위해서 끊임없이 욕심을 갖고 있어야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 이펙트란 무엇일까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 기승전결이 확실한 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 게임의 분위기에 잘 섞일 수 있는 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 애니메이션 타이밍이 좋은 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 색감이 풍성한 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술이 다가 아니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 기성게임과, 영화, 애니메이션, 자연현상 등을 관찰하는 습관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 디자인적인 눈을 기르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 많이 보고 많이 연구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 이펙트의 발생과 끝이 확실하게 보여야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;기승전결이 뚜렷하고 많은 이미지를 잘 정리해서 섞어야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 게임 디자인에 맞춰 이펙트 디자인을 맞춰야 한다. [실사 배경 -&gt; 반실사 이펙트, 캐주얼 배경 -&gt; 캐주얼 이펙트]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 타이밍을 잘 맞춘 이펙트, 느려질 땐 확실히 느려지고, 빨라야할 타이밍엔 확실히 빨라지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 이펙트 디자인의 똑같은 색상과 텍스쳐를 하나만 갖고 만드는 것이 아니라, 그라데이션이나, 다양한 색감을 섞어서 풍성하게 만들어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 항상 어떤 방식으로 이런 느낌을 만들었을까? 하는 연구를 많이 해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FXM_***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FXS_***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FXT_***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FXP_***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FXSM_***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 네이밍 기본 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반드시 습관처럼 해야하며, 나중에 리소스 찾기에 매우 좋다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loacal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene의 포지션 상태 차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티 세계의 포지션 값을 따라간다는 의미이며, 항상 고정된 포지션 값을 갖고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트가 갖고 있는 포지션의 방향을 따라간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amplify Shader 생성법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create &gt; Amplity Shader &gt; Surface 로 생성해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 환경 셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 상단 Window &gt; Rendering &gt; Lighting Setting 눌러, 팝업을 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Environment &gt; Sky box Material의 기본 박스를 지워준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 지운 경우, Scene 화면이 회색으로 바뀐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 잠시 팝업을 닫은 후, Hierarchy &gt; Main Camera &gt; Camera &gt; Background 배경을 Scene의 배경 색상과 같이 어둡게 색상을 변경한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Hierarchy &gt; 우클릭 &gt; 3D Obeject &gt; Plane을 눌러 생성하고, 포지션 값을 모두 0으로 바꿔준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. Hierarchy &gt; Directional Light의 Color 값을 어둡게 지정해준다.[회색]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. Directional Light &gt; Intensity 의 값을 0.5 정도 줌으로써, 어두운 분위기를 조성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Post-process를 설치하는 방법은 생략한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Main Camera</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +468,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -153,6 +480,21 @@
       <sz val="8"/>
       <name val="굴림"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -178,12 +520,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -203,6 +551,459 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0977BE52-5625-4DF7-8C24-657A07B9B10B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1142999" y="47625"/>
+          <a:ext cx="7372351" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>파티클을 이용한 돌</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> 생성하기</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+            <a:cs typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA597FD-F365-40BB-83DA-B1E35FD6F05E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="47625"/>
+          <a:ext cx="1019176" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCBA206-1136-4EA9-A794-2D8C92B54837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="47625"/>
+          <a:ext cx="1019176" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>이전 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AAE6791-F2C6-7701-FF91-FE8694E24CBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219324" y="47625"/>
+          <a:ext cx="7372351" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>파티클을 이용한 돌</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> 생성하기</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+            <a:cs typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3263AD-5CAA-3C9A-06A3-D76C63D5D6E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="47625"/>
+          <a:ext cx="1019176" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="Microsoft GothicNeo" panose="020B0500000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>다음 페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -898,14 +1699,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995E62C4-A90D-4FE2-A91B-5775B57820B4}">
-  <dimension ref="A1"/>
+  <dimension ref="B6:B64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B37" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B49" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B60" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1004,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633CD9A5-ED08-4D2E-A5EA-D24BC25B8B49}">
   <dimension ref="A2:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" activeCellId="1" sqref="N9 S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1159,14 +2227,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE810672-77C3-45E0-B2AF-81B17C10B871}">
-  <dimension ref="A1"/>
+  <dimension ref="B6:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R18:R19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:3" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/3. Effect_관련 파일/이펙트 제작 문서.xlsx
+++ b/3. Effect_관련 파일/이펙트 제작 문서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsdu\Desktop\JinYeong_GitHub\3. Effect_관련 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\3. Effect_관련 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DE4142-7BC7-492A-826D-FA2E5B9A2888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFF07FB-3F65-4B22-BF3B-95E527AAA1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{B5E5BB8F-9B20-49AE-9DAA-3D099A6DFC15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="16" xr2:uid="{B5E5BB8F-9B20-49AE-9DAA-3D099A6DFC15}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차 이펙터의 정의" sheetId="1" r:id="rId1"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*이때 부모의 Shape를 Box로 만들어서 1자 형태로 만들면 가능하지 않을까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 이펙트란 무엇인가?</t>
   </si>
   <si>
@@ -461,6 +457,10 @@
   </si>
   <si>
     <t>2. Main Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모 파티클 방향을 앞으로만 발사하면 일자로 날아간다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1702,7 +1702,7 @@
   <dimension ref="B6:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1712,262 +1712,262 @@
   <sheetData>
     <row r="6" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2070,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633CD9A5-ED08-4D2E-A5EA-D24BC25B8B49}">
-  <dimension ref="A2:S57"/>
+  <dimension ref="A2:S58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" activeCellId="1" sqref="N9 S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2200,22 +2200,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>19</v>
       </c>
-      <c r="K57" t="s">
-        <v>20</v>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2229,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE810672-77C3-45E0-B2AF-81B17C10B871}">
   <dimension ref="B6:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R18:R19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2240,146 +2242,146 @@
   <sheetData>
     <row r="6" spans="2:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
         <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
         <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
         <v>83</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
